--- a/datasets/seven_five_ab.xlsx
+++ b/datasets/seven_five_ab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FC215-FCF3-42E2-85F9-7016B3843970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5F2CF3-D07A-44C8-B274-6F61FBCB1226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3615" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="2700" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,21 +42,19 @@
     <t>Sweden-≥ 1 prosecutions</t>
   </si>
   <si>
-    <t>Sweden,
-foreign born parents-≥ 1 prosecutions</t>
-  </si>
-  <si>
     <t>Foreign born-≥ 1 prosecutions</t>
   </si>
   <si>
     <t>Sweden-≥ 2 prosecutions</t>
   </si>
   <si>
-    <t>Sweden,
-foreign born parents-≥ 2 prosecutions</t>
+    <t>Foreign born-≥ 2 prosecutions</t>
   </si>
   <si>
-    <t>Foreign born-≥ 2 prosecutions</t>
+    <t>Sweden, foreign born parents-≥ 1 prosecutions</t>
+  </si>
+  <si>
+    <t>Sweden, foreign born parents-≥ 2 prosecutions</t>
   </si>
 </sst>
 </file>
@@ -453,21 +451,21 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
